--- a/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019849_Event_31.xlsx
+++ b/ChameleonData/StrideTimes/StrideOutputs/Snow_3_5_4_18_GH019849_Event_31.xlsx
@@ -7,10 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB hindlimb" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB ankle" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC hindlimb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC ankle" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_forelimb" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_forelimb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_wrist" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_wrist" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_hindlimb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_hindlimb" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AB_ankle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AC_ankle" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +520,57 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_min_hip_height_height</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>stride_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_max_hip_height_height</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_min_hip_height_height</t>
         </is>
       </c>
     </row>
@@ -453,10 +579,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80.43824761475406</v>
+        <v>80.27928517246431</v>
       </c>
       <c r="C2" t="n">
-        <v>82.63953988998665</v>
+        <v>80.27928517246431</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-47.86174642697308</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13.35486951728534</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0355216510535929</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.007423786881070888</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80.43098559397647</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80.43098559397647</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-38.80875797277558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.677299611768461</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03976473296757562</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02139240652553229</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +620,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>80.44505142044436</v>
-      </c>
-      <c r="C3" t="n">
-        <v>82.63593386109262</v>
-      </c>
+        <v>80.43824761475406</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>82.63953988998665</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -477,1960 +643,1847 @@
       <c r="B4" t="n">
         <v>80.44505142044436</v>
       </c>
-      <c r="C4" t="n">
-        <v>84.80026195798948</v>
-      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>82.63593386109262</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>80.20323445180752</v>
-      </c>
-      <c r="C5" t="n">
-        <v>84.81215097925806</v>
-      </c>
+        <v>80.44505142044436</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>84.80026195798948</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80.15230300502577</v>
-      </c>
-      <c r="C6" t="n">
-        <v>84.51525595131758</v>
-      </c>
+        <v>80.20323445180752</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>84.81215097925806</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41.97859036678861</v>
-      </c>
-      <c r="C7" t="n">
-        <v>84.64689556472729</v>
-      </c>
+        <v>80.15230300502577</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>84.51525595131758</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.57578925810652</v>
-      </c>
-      <c r="C8" t="n">
-        <v>84.69417111347025</v>
-      </c>
+        <v>41.97859036678861</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>84.64689556472729</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85.99479602554094</v>
-      </c>
-      <c r="C9" t="n">
-        <v>84.77330212890782</v>
-      </c>
+        <v>41.57578925810652</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>84.69417111347025</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86.48435433756221</v>
-      </c>
-      <c r="C10" t="n">
-        <v>83.63506647153665</v>
-      </c>
+        <v>85.99479602554094</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>84.77330212890782</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86.45835658437466</v>
-      </c>
-      <c r="C11" t="n">
-        <v>83.57162911455593</v>
-      </c>
+        <v>86.48435433756221</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>83.63506647153665</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>86.45848293336469</v>
-      </c>
-      <c r="C12" t="n">
-        <v>81.72987835237151</v>
-      </c>
+        <v>86.45835658437466</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>83.57162911455593</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>86.45543915172817</v>
-      </c>
-      <c r="C13" t="n">
-        <v>81.71845012175048</v>
-      </c>
+        <v>86.45848293336469</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>81.72987835237151</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>86.42450375196221</v>
-      </c>
-      <c r="C14" t="n">
-        <v>79.97162259349237</v>
-      </c>
+        <v>86.45543915172817</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>81.71845012175048</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>86.41020616767351</v>
-      </c>
-      <c r="C15" t="n">
-        <v>79.7882842957726</v>
-      </c>
+        <v>86.42450375196221</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>79.97162259349237</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>79.02889857909916</v>
-      </c>
-      <c r="C16" t="n">
-        <v>76.63443834815374</v>
-      </c>
+        <v>86.41020616767351</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>79.7882842957726</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>79.03652870521486</v>
-      </c>
-      <c r="C17" t="n">
-        <v>76.49765347533717</v>
-      </c>
+        <v>79.02889857909916</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>76.63443834815374</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>86.44995148623113</v>
-      </c>
-      <c r="C18" t="n">
-        <v>73.18714160538528</v>
-      </c>
+        <v>79.03652870521486</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>76.49765347533717</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.646183157404507</v>
-      </c>
-      <c r="C19" t="n">
-        <v>73.13056701820651</v>
-      </c>
+        <v>86.44995148623113</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>73.18714160538528</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>46.57860645722619</v>
-      </c>
-      <c r="C20" t="n">
-        <v>68.66500378662758</v>
-      </c>
+        <v>-5.646183157404507</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>73.13056701820651</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>26.44462398817155</v>
-      </c>
-      <c r="C21" t="n">
-        <v>68.51426167983035</v>
-      </c>
+        <v>46.57860645722619</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>68.66500378662758</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>86.47832315490601</v>
-      </c>
-      <c r="C22" t="n">
-        <v>63.69114413538608</v>
-      </c>
+        <v>26.44462398817155</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>68.51426167983035</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>85.64212464789526</v>
-      </c>
-      <c r="C23" t="n">
-        <v>63.47926159416719</v>
-      </c>
+        <v>86.47832315490601</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>63.69114413538608</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>87.85418261581718</v>
-      </c>
-      <c r="C24" t="n">
-        <v>57.75792512394153</v>
-      </c>
+        <v>85.64212464789526</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>63.47926159416719</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>87.82553207487729</v>
-      </c>
-      <c r="C25" t="n">
-        <v>57.71423182922319</v>
-      </c>
+        <v>87.85418261581718</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>57.75792512394153</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>86.61397682616339</v>
-      </c>
-      <c r="C26" t="n">
-        <v>51.54563010298207</v>
-      </c>
+        <v>87.82553207487729</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>57.71423182922319</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>86.62195463358273</v>
-      </c>
-      <c r="C27" t="n">
-        <v>51.42417240203377</v>
-      </c>
+        <v>86.61397682616339</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>51.54563010298207</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>88.98408370450096</v>
-      </c>
-      <c r="C28" t="n">
-        <v>47.28862043720794</v>
-      </c>
+        <v>86.62195463358273</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>51.42417240203377</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>89.27521923475112</v>
-      </c>
-      <c r="C29" t="n">
-        <v>47.10224159250499</v>
-      </c>
+        <v>88.98408370450096</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>47.28862043720794</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>86.46385558191643</v>
-      </c>
-      <c r="C30" t="n">
-        <v>42.4999297318931</v>
-      </c>
+        <v>89.27521923475112</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>47.10224159250499</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>85.64931172282716</v>
-      </c>
-      <c r="C31" t="n">
-        <v>42.40061387869424</v>
-      </c>
+        <v>86.46385558191643</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>42.4999297318931</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.27351706561804</v>
-      </c>
-      <c r="C32" t="n">
-        <v>37.42659119634251</v>
-      </c>
+        <v>85.64931172282716</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>42.40061387869424</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.2141974005151</v>
-      </c>
-      <c r="C33" t="n">
-        <v>37.2699017972717</v>
-      </c>
+        <v>13.27351706561804</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>37.42659119634251</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.41479874212039</v>
-      </c>
-      <c r="C34" t="n">
-        <v>32.98473941565609</v>
-      </c>
+        <v>13.2141974005151</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>37.2699017972717</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.3520592134783</v>
-      </c>
-      <c r="C35" t="n">
-        <v>32.90401062633964</v>
-      </c>
+        <v>15.41479874212039</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>32.98473941565609</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10.18706016103441</v>
-      </c>
-      <c r="C36" t="n">
-        <v>28.0964577170496</v>
-      </c>
+        <v>15.3520592134783</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>32.90401062633964</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10.14965700161952</v>
-      </c>
-      <c r="C37" t="n">
-        <v>28.08111053472275</v>
-      </c>
+        <v>10.18706016103441</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>28.0964577170496</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.306380375263138</v>
-      </c>
-      <c r="C38" t="n">
-        <v>23.94102290409987</v>
-      </c>
+        <v>10.14965700161952</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>28.08111053472275</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.317627079526188</v>
-      </c>
-      <c r="C39" t="n">
-        <v>23.84360790243403</v>
-      </c>
+        <v>5.306380375263138</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>23.94102290409987</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8129112488159602</v>
-      </c>
-      <c r="C40" t="n">
-        <v>17.97653902716088</v>
-      </c>
+        <v>5.317627079526188</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>23.84360790243403</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.063099209093659</v>
-      </c>
-      <c r="C41" t="n">
-        <v>18.07063560995131</v>
-      </c>
+        <v>0.8129112488159602</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>17.97653902716088</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.679739618399294</v>
-      </c>
-      <c r="C42" t="n">
-        <v>13.30968760196214</v>
-      </c>
+        <v>1.063099209093659</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>18.07063560995131</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.64758396954589</v>
-      </c>
-      <c r="C43" t="n">
-        <v>12.94535575144097</v>
-      </c>
+        <v>-5.679739618399294</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>13.30968760196214</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-10.50611080838653</v>
-      </c>
-      <c r="C44" t="n">
-        <v>8.619770801435131</v>
-      </c>
+        <v>-5.64758396954589</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>12.94535575144097</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-10.26079556070358</v>
-      </c>
-      <c r="C45" t="n">
-        <v>8.677299611768461</v>
-      </c>
+        <v>-10.50611080838653</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>8.619770801435131</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-16.20362822618415</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.035876136367715</v>
-      </c>
+        <v>-10.26079556070358</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>8.677299611768461</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-16.30227939178829</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.379657104092534</v>
-      </c>
+        <v>-16.20362822618415</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>5.035876136367715</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-20.22684926725955</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.069803677630973</v>
-      </c>
+        <v>-16.30227939178829</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>5.379657104092534</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-20.09850379135163</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.199577112276604</v>
-      </c>
+        <v>-20.22684926725955</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>1.069803677630973</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-23.22291846817043</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-3.201439648499713</v>
-      </c>
+        <v>-20.09850379135163</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>1.199577112276604</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-23.37124449084886</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-3.18688591464154</v>
-      </c>
+        <v>-23.22291846817043</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>-3.201439648499713</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-27.14854715241446</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-7.345963420545311</v>
-      </c>
+        <v>-23.37124449084886</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>-3.18688591464154</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-27.09507132697398</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-7.465432333105036</v>
-      </c>
+        <v>-27.14854715241446</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>-7.345963420545311</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-30.96883560808555</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-11.57806113315048</v>
-      </c>
+        <v>-27.09507132697398</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>-7.465432333105036</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-31.06012585545678</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-11.60074605432838</v>
-      </c>
+        <v>-30.96883560808555</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>-11.57806113315048</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-35.06252744344712</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-16.04096093643908</v>
-      </c>
+        <v>-31.06012585545678</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>-11.60074605432838</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-35.05357294937927</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-16.07240876378943</v>
-      </c>
+        <v>-35.06252744344712</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>-16.04096093643908</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-38.85093256167762</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-19.43717892315082</v>
-      </c>
+        <v>-35.05357294937927</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>-16.07240876378943</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-38.97202526218656</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-19.45203227682502</v>
-      </c>
+        <v>-38.85093256167762</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>-19.43717892315082</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-42.91570879627751</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-23.1706259918085</v>
-      </c>
+        <v>-38.97202526218656</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>-19.45203227682502</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-42.87326963562254</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-23.18070918752571</v>
-      </c>
+        <v>-42.91570879627751</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>-23.1706259918085</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-45.71281667534782</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-25.71378858872797</v>
-      </c>
+        <v>-42.87326963562254</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>-23.18070918752571</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-45.73394662445276</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-25.66038968655466</v>
-      </c>
+        <v>-45.71281667534782</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>-25.71378858872797</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-48.04890898833446</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-28.61265308286374</v>
-      </c>
+        <v>-45.73394662445276</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>-25.66038968655466</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-47.98169526746177</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-28.55682819481179</v>
-      </c>
+        <v>-48.04890898833446</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>-28.61265308286374</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-51.20672564210315</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-30.40748470079982</v>
-      </c>
+        <v>-47.98169526746177</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>-28.55682819481179</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-51.15009722287125</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-30.43247930810001</v>
-      </c>
+        <v>-51.20672564210315</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>-30.40748470079982</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-52.00051241151999</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-32.26013438360236</v>
-      </c>
+        <v>-51.15009722287125</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>-30.43247930810001</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-51.96883683699316</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-32.23851777907389</v>
-      </c>
+        <v>-52.00051241151999</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>-32.26013438360236</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-52.12698365527655</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-34.12070426629396</v>
-      </c>
+        <v>-51.96883683699316</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>-32.23851777907389</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-52.08664100883051</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-34.13770544893791</v>
-      </c>
+        <v>-52.12698365527655</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>-34.12070426629396</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-52.70439957074093</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-35.14479712455022</v>
-      </c>
+        <v>-52.08664100883051</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>-34.13770544893791</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-52.95338702154523</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-35.14195068633864</v>
-      </c>
+        <v>-52.70439957074093</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>-35.14479712455022</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-52.11737543320911</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-36.84333154669029</v>
-      </c>
+        <v>-52.95338702154523</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>-35.14195068633864</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-52.10565952183029</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-36.82039088646646</v>
-      </c>
+        <v>-52.11737543320911</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>-36.84333154669029</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-52.20735752950278</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-38.13653042457958</v>
-      </c>
+        <v>-52.10565952183029</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>-36.82039088646646</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-52.13902118232237</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-38.10305867340352</v>
-      </c>
+        <v>-52.20735752950278</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>-38.13653042457958</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-52.35611952590941</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-39.03251763517144</v>
-      </c>
+        <v>-52.13902118232237</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>-38.10305867340352</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-52.47967603294051</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-39.13495405636679</v>
-      </c>
+        <v>-52.35611952590941</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>-39.03251763517144</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-52.08403119467465</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-39.26616094948715</v>
-      </c>
+        <v>-52.47967603294051</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>-39.13495405636679</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-51.9403738675258</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-39.24445002422951</v>
-      </c>
+        <v>-52.08403119467465</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>-39.26616094948715</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-52.38133525722154</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-39.72922042880859</v>
-      </c>
+        <v>-51.9403738675258</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>-39.24445002422951</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-52.22731493707765</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-39.74591554236658</v>
-      </c>
+        <v>-52.38133525722154</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>-39.72922042880859</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-51.46788379854126</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-39.36028542424542</v>
-      </c>
+        <v>-52.22731493707765</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>-39.74591554236658</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-51.54049766267567</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-39.36425529460507</v>
-      </c>
+        <v>-51.46788379854126</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>-39.36028542424542</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-50.08324290583786</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-38.75098318467187</v>
-      </c>
+        <v>-51.54049766267567</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>-39.36425529460507</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-50.11127785122068</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-38.80875797277558</v>
-      </c>
+        <v>-50.08324290583786</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>-38.75098318467187</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-49.58470686831341</v>
+        <v>-50.11127785122068</v>
       </c>
       <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>-38.80875797277558</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-49.58602118661283</v>
+        <v>-49.58470686831341</v>
       </c>
       <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
+        <v>-49.58602118661283</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
         <v>-47.86174642697308</v>
       </c>
-      <c r="C90" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C90"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>stride_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>stride_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-87.78799752264234</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-61.63758292583554</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-85.68704784174115</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-61.65203815391042</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-85.68704784174115</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-61.11996973297495</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-84.4593716794096</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-61.07539021510838</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-30.39698584639881</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-60.09973135513066</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-62.06724177991454</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-60.02070644855612</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-32.32196543462899</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-59.07985004271023</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-2.087810684971421</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-59.04554884782092</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-35.87471662902858</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-57.45922301356013</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-35.92265265724064</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-57.3872971364508</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-35.71647081494927</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-55.69347700310035</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-35.69745953263219</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-55.68181285384595</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-34.85217218642862</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-53.57528052648674</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-34.92816291610534</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-53.52319484953377</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-67.88491670344048</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-50.99817723445683</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-65.10540978894032</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-50.90122576629455</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-34.82339259079178</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-47.95377507765861</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-34.85732940424438</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-47.91698052356064</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-22.8609578135961</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-44.60471053185043</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-22.86654768368649</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-44.54034375441748</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-22.89260105434455</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-41.29473096413443</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-22.88616233570551</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-41.27666231252186</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-21.56795353427416</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-37.73055932083675</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-21.46308554659829</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-37.64762523781689</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-21.49204577481365</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-33.51315135967565</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>-21.5542128409697</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-33.45225256049468</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-20.69984379289943</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-30.19033718505934</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>-20.67585760616458</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-30.03032731928871</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-21.96116662855801</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-26.17517195127756</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-21.98812375478843</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-26.13109010574603</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-10.47594930191554</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-22.33742204928718</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-10.46284511642493</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-22.22020164578435</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>-10.3346074285141</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-18.96318736642483</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-10.29461175914333</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-18.8904257435641</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-7.235338890198206</v>
-      </c>
-      <c r="C36" t="n">
-        <v>-16.3262868736193</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-7.229027532412466</v>
-      </c>
-      <c r="C37" t="n">
-        <v>-16.24169798366541</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-3.412643580627811</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-11.77778277255512</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-3.431596396635846</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-11.74301927138622</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.1343257595588045</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-6.553573658476602</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.1305643004374299</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-6.528266833612189</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.010093682360174</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-2.173606346330512</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.992246680683682</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-1.962410696966759</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>7.905353620485381</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.021190241022395</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>7.931175489761942</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.968593998863605</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>12.30190887035676</v>
-      </c>
-      <c r="C46" t="n">
-        <v>5.282420919885321</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>12.36115129243081</v>
-      </c>
-      <c r="C47" t="n">
-        <v>5.259242848733812</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>15.85443959929929</v>
-      </c>
-      <c r="C48" t="n">
-        <v>8.942864865334879</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>15.85493777329431</v>
-      </c>
-      <c r="C49" t="n">
-        <v>8.820313658656859</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>18.9904088879249</v>
-      </c>
-      <c r="C50" t="n">
-        <v>13.12830467622388</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>19.08739237905473</v>
-      </c>
-      <c r="C51" t="n">
-        <v>13.084463259558</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>22.45688945193073</v>
-      </c>
-      <c r="C52" t="n">
-        <v>16.79129990515845</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>22.52868454134562</v>
-      </c>
-      <c r="C53" t="n">
-        <v>16.7262979080058</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>25.84912154735562</v>
-      </c>
-      <c r="C54" t="n">
-        <v>20.54250612683811</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>25.93795268724601</v>
-      </c>
-      <c r="C55" t="n">
-        <v>20.38325210685669</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>29.32059114449422</v>
-      </c>
-      <c r="C56" t="n">
-        <v>23.97833534180075</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>29.3265440641469</v>
-      </c>
-      <c r="C57" t="n">
-        <v>23.91381045158343</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>33.17420011885267</v>
-      </c>
-      <c r="C58" t="n">
-        <v>27.22929523721702</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>33.23140102542202</v>
-      </c>
-      <c r="C59" t="n">
-        <v>27.24270617838852</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>37.04677970620001</v>
-      </c>
-      <c r="C60" t="n">
-        <v>29.89235787556072</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>37.09027824331317</v>
-      </c>
-      <c r="C61" t="n">
-        <v>29.86885900477201</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>40.99301121292995</v>
-      </c>
-      <c r="C62" t="n">
-        <v>32.19543760072993</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>41.06910817872996</v>
-      </c>
-      <c r="C63" t="n">
-        <v>32.21089249883762</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>45.11871514331018</v>
-      </c>
-      <c r="C64" t="n">
-        <v>34.95781954086841</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>45.07936560273627</v>
-      </c>
-      <c r="C65" t="n">
-        <v>35.0551315766607</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>49.06470349567714</v>
-      </c>
-      <c r="C66" t="n">
-        <v>37.47110872501225</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>49.05865590882303</v>
-      </c>
-      <c r="C67" t="n">
-        <v>37.43624865767166</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>51.08512535349463</v>
-      </c>
-      <c r="C68" t="n">
-        <v>39.76863844067788</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>51.06975805835946</v>
-      </c>
-      <c r="C69" t="n">
-        <v>39.73028244423177</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>51.63670349317172</v>
-      </c>
-      <c r="C70" t="n">
-        <v>41.68751441746455</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>51.6240318538016</v>
-      </c>
-      <c r="C71" t="n">
-        <v>41.74157003236885</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>52.12475772405045</v>
-      </c>
-      <c r="C72" t="n">
-        <v>42.58566715989529</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>52.23215505123361</v>
-      </c>
-      <c r="C73" t="n">
-        <v>42.59967664653046</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>51.67772960841284</v>
-      </c>
-      <c r="C74" t="n">
-        <v>43.13360621709528</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>51.64016896450978</v>
-      </c>
-      <c r="C75" t="n">
-        <v>43.13576538154867</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>51.82459001753987</v>
-      </c>
-      <c r="C76" t="n">
-        <v>43.62999935246906</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>51.78205879792847</v>
-      </c>
-      <c r="C77" t="n">
-        <v>43.65083345371185</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>51.80025050195699</v>
-      </c>
-      <c r="C78" t="n">
-        <v>43.86103720218848</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>51.79100768357182</v>
-      </c>
-      <c r="C79" t="n">
-        <v>43.88909047265978</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>51.56202227004672</v>
-      </c>
-      <c r="C80" t="n">
-        <v>44.15996317276623</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>51.50849336869342</v>
-      </c>
-      <c r="C81" t="n">
-        <v>44.137027374174</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>51.76706373144986</v>
-      </c>
-      <c r="C82" t="n">
-        <v>44.70569717605023</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>51.66654343410001</v>
-      </c>
-      <c r="C83" t="n">
-        <v>44.67113106652702</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>50.84209509421635</v>
-      </c>
-      <c r="C84" t="n">
-        <v>44.63750192174189</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>50.81851088720475</v>
-      </c>
-      <c r="C85" t="n">
-        <v>44.63853174660242</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>49.83861279252041</v>
-      </c>
-      <c r="C86" t="n">
-        <v>44.18516143887977</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>49.83535642819775</v>
-      </c>
-      <c r="C87" t="n">
-        <v>44.20909368730587</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>48.95388577732956</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>48.95218432071233</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>48.07765446449542</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2461,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80.43824761475406</v>
+        <v>80.27928517246431</v>
       </c>
       <c r="C2" t="n">
-        <v>82.63953988998665</v>
+        <v>80.43098559397647</v>
       </c>
     </row>
     <row r="3">
@@ -2472,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>80.44505142044436</v>
+        <v>80.43824761475406</v>
       </c>
       <c r="C3" t="n">
-        <v>82.63593386109262</v>
+        <v>82.63953988998665</v>
       </c>
     </row>
     <row r="4">
@@ -2483,10 +2536,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>80.20323445180752</v>
+        <v>80.44505142044436</v>
       </c>
       <c r="C4" t="n">
-        <v>84.81215097925806</v>
+        <v>84.80026195798948</v>
       </c>
     </row>
     <row r="5">
@@ -2494,10 +2547,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>80.15230300502577</v>
+        <v>80.20323445180752</v>
       </c>
       <c r="C5" t="n">
-        <v>84.51525595131758</v>
+        <v>84.81215097925806</v>
       </c>
     </row>
     <row r="6">
@@ -2505,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.97859036678861</v>
+        <v>80.15230300502577</v>
       </c>
       <c r="C6" t="n">
         <v>84.64689556472729</v>
@@ -2516,10 +2569,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41.57578925810652</v>
+        <v>41.97859036678861</v>
       </c>
       <c r="C7" t="n">
-        <v>84.77330212890782</v>
+        <v>84.69417111347025</v>
       </c>
     </row>
     <row r="8">
@@ -2527,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86.48435433756221</v>
+        <v>85.99479602554094</v>
       </c>
       <c r="C8" t="n">
-        <v>83.63506647153665</v>
+        <v>84.77330212890782</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2591,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86.45835658437466</v>
+        <v>86.48435433756221</v>
       </c>
       <c r="C9" t="n">
-        <v>81.72987835237151</v>
+        <v>83.57162911455593</v>
       </c>
     </row>
     <row r="10">
@@ -2549,10 +2602,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86.45848293336469</v>
+        <v>86.45835658437466</v>
       </c>
       <c r="C10" t="n">
-        <v>81.71845012175048</v>
+        <v>81.72987835237151</v>
       </c>
     </row>
     <row r="11">
@@ -2560,10 +2613,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>86.42450375196221</v>
+        <v>86.45543915172817</v>
       </c>
       <c r="C11" t="n">
-        <v>79.97162259349237</v>
+        <v>81.71845012175048</v>
       </c>
     </row>
     <row r="12">
@@ -2571,10 +2624,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>86.41020616767351</v>
+        <v>86.42450375196221</v>
       </c>
       <c r="C12" t="n">
-        <v>76.63443834815374</v>
+        <v>79.7882842957726</v>
       </c>
     </row>
     <row r="13">
@@ -2582,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>79.02889857909916</v>
+        <v>86.41020616767351</v>
       </c>
       <c r="C13" t="n">
-        <v>76.49765347533717</v>
+        <v>76.63443834815374</v>
       </c>
     </row>
     <row r="14">
@@ -2593,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>79.03652870521486</v>
+        <v>79.02889857909916</v>
       </c>
       <c r="C14" t="n">
         <v>73.18714160538528</v>
@@ -2604,10 +2657,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.646183157404507</v>
+        <v>86.44995148623113</v>
       </c>
       <c r="C15" t="n">
-        <v>68.66500378662758</v>
+        <v>73.13056701820651</v>
       </c>
     </row>
     <row r="16">
@@ -2615,10 +2668,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46.57860645722619</v>
+        <v>-5.646183157404507</v>
       </c>
       <c r="C16" t="n">
-        <v>68.51426167983035</v>
+        <v>68.66500378662758</v>
       </c>
     </row>
     <row r="17">
@@ -2626,10 +2679,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>26.44462398817155</v>
+        <v>46.57860645722619</v>
       </c>
       <c r="C17" t="n">
-        <v>63.47926159416719</v>
+        <v>63.69114413538608</v>
       </c>
     </row>
     <row r="18">
@@ -2640,7 +2693,7 @@
         <v>86.47832315490601</v>
       </c>
       <c r="C18" t="n">
-        <v>57.75792512394153</v>
+        <v>63.47926159416719</v>
       </c>
     </row>
     <row r="19">
@@ -2648,10 +2701,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>87.85418261581718</v>
+        <v>85.64212464789526</v>
       </c>
       <c r="C19" t="n">
-        <v>57.71423182922319</v>
+        <v>57.75792512394153</v>
       </c>
     </row>
     <row r="20">
@@ -2659,10 +2712,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>87.82553207487729</v>
+        <v>87.85418261581718</v>
       </c>
       <c r="C20" t="n">
-        <v>51.42417240203377</v>
+        <v>51.54563010298207</v>
       </c>
     </row>
     <row r="21">
@@ -2673,7 +2726,7 @@
         <v>86.61397682616339</v>
       </c>
       <c r="C21" t="n">
-        <v>47.28862043720794</v>
+        <v>51.42417240203377</v>
       </c>
     </row>
     <row r="22">
@@ -2681,7 +2734,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>88.98408370450096</v>
+        <v>86.62195463358273</v>
       </c>
       <c r="C22" t="n">
         <v>47.10224159250499</v>
@@ -2692,10 +2745,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>89.27521923475112</v>
+        <v>88.98408370450096</v>
       </c>
       <c r="C23" t="n">
-        <v>42.40061387869424</v>
+        <v>42.4999297318931</v>
       </c>
     </row>
     <row r="24">
@@ -2703,10 +2756,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>86.46385558191643</v>
+        <v>89.27521923475112</v>
       </c>
       <c r="C24" t="n">
-        <v>37.42659119634251</v>
+        <v>42.40061387869424</v>
       </c>
     </row>
     <row r="25">
@@ -2717,7 +2770,7 @@
         <v>85.64931172282716</v>
       </c>
       <c r="C25" t="n">
-        <v>32.98473941565609</v>
+        <v>37.2699017972717</v>
       </c>
     </row>
     <row r="26">
@@ -2725,10 +2778,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13.2141974005151</v>
+        <v>13.27351706561804</v>
       </c>
       <c r="C26" t="n">
-        <v>32.90401062633964</v>
+        <v>32.98473941565609</v>
       </c>
     </row>
     <row r="27">
@@ -2736,10 +2789,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.41479874212039</v>
+        <v>13.2141974005151</v>
       </c>
       <c r="C27" t="n">
-        <v>28.0964577170496</v>
+        <v>32.90401062633964</v>
       </c>
     </row>
     <row r="28">
@@ -2750,7 +2803,7 @@
         <v>15.3520592134783</v>
       </c>
       <c r="C28" t="n">
-        <v>23.94102290409987</v>
+        <v>28.08111053472275</v>
       </c>
     </row>
     <row r="29">
@@ -2758,10 +2811,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.14965700161952</v>
+        <v>10.18706016103441</v>
       </c>
       <c r="C29" t="n">
-        <v>23.84360790243403</v>
+        <v>23.94102290409987</v>
       </c>
     </row>
     <row r="30">
@@ -2769,7 +2822,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.306380375263138</v>
+        <v>10.14965700161952</v>
       </c>
       <c r="C30" t="n">
         <v>17.97653902716088</v>
@@ -2780,10 +2833,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.317627079526188</v>
+        <v>5.306380375263138</v>
       </c>
       <c r="C31" t="n">
-        <v>13.30968760196214</v>
+        <v>18.07063560995131</v>
       </c>
     </row>
     <row r="32">
@@ -2794,7 +2847,7 @@
         <v>0.8129112488159602</v>
       </c>
       <c r="C32" t="n">
-        <v>12.94535575144097</v>
+        <v>13.30968760196214</v>
       </c>
     </row>
     <row r="33">
@@ -2802,7 +2855,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-5.679739618399294</v>
+        <v>1.063099209093659</v>
       </c>
       <c r="C33" t="n">
         <v>8.619770801435131</v>
@@ -2813,10 +2866,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.64758396954589</v>
+        <v>-5.679739618399294</v>
       </c>
       <c r="C34" t="n">
-        <v>5.035876136367715</v>
+        <v>8.677299611768461</v>
       </c>
     </row>
     <row r="35">
@@ -2835,10 +2888,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-16.20362822618415</v>
+        <v>-10.26079556070358</v>
       </c>
       <c r="C36" t="n">
-        <v>1.199577112276604</v>
+        <v>1.069803677630973</v>
       </c>
     </row>
     <row r="37">
@@ -2846,10 +2899,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-16.30227939178829</v>
+        <v>-16.20362822618415</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.201439648499713</v>
+        <v>1.199577112276604</v>
       </c>
     </row>
     <row r="38">
@@ -2857,7 +2910,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-20.22684926725955</v>
+        <v>-16.30227939178829</v>
       </c>
       <c r="C38" t="n">
         <v>-3.18688591464154</v>
@@ -2871,7 +2924,7 @@
         <v>-20.09850379135163</v>
       </c>
       <c r="C39" t="n">
-        <v>-7.465432333105036</v>
+        <v>-7.345963420545311</v>
       </c>
     </row>
     <row r="40">
@@ -2879,10 +2932,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-23.37124449084886</v>
+        <v>-23.22291846817043</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.57806113315048</v>
+        <v>-7.465432333105036</v>
       </c>
     </row>
     <row r="41">
@@ -2890,7 +2943,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-27.14854715241446</v>
+        <v>-23.37124449084886</v>
       </c>
       <c r="C41" t="n">
         <v>-11.60074605432838</v>
@@ -2904,7 +2957,7 @@
         <v>-27.09507132697398</v>
       </c>
       <c r="C42" t="n">
-        <v>-16.07240876378943</v>
+        <v>-16.04096093643908</v>
       </c>
     </row>
     <row r="43">
@@ -2923,10 +2976,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-35.06252744344712</v>
+        <v>-31.06012585545678</v>
       </c>
       <c r="C44" t="n">
-        <v>-23.1706259918085</v>
+        <v>-19.45203227682502</v>
       </c>
     </row>
     <row r="45">
@@ -2934,10 +2987,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-35.05357294937927</v>
+        <v>-35.06252744344712</v>
       </c>
       <c r="C45" t="n">
-        <v>-23.18070918752571</v>
+        <v>-23.1706259918085</v>
       </c>
     </row>
     <row r="46">
@@ -2956,10 +3009,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-42.91570879627751</v>
+        <v>-38.97202526218656</v>
       </c>
       <c r="C47" t="n">
-        <v>-28.61265308286374</v>
+        <v>-25.66038968655466</v>
       </c>
     </row>
     <row r="48">
@@ -2967,10 +3020,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-42.87326963562254</v>
+        <v>-42.91570879627751</v>
       </c>
       <c r="C48" t="n">
-        <v>-28.55682819481179</v>
+        <v>-28.61265308286374</v>
       </c>
     </row>
     <row r="49">
@@ -2992,7 +3045,7 @@
         <v>-45.73394662445276</v>
       </c>
       <c r="C50" t="n">
-        <v>-32.26013438360236</v>
+        <v>-30.43247930810001</v>
       </c>
     </row>
     <row r="51">
@@ -3000,7 +3053,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-47.98169526746177</v>
+        <v>-48.04890898833446</v>
       </c>
       <c r="C51" t="n">
         <v>-32.23851777907389</v>
@@ -3011,7 +3064,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-51.20672564210315</v>
+        <v>-47.98169526746177</v>
       </c>
       <c r="C52" t="n">
         <v>-34.12070426629396</v>
@@ -3025,7 +3078,7 @@
         <v>-51.15009722287125</v>
       </c>
       <c r="C53" t="n">
-        <v>-35.14479712455022</v>
+        <v>-34.13770544893791</v>
       </c>
     </row>
     <row r="54">
@@ -3033,7 +3086,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-51.96883683699316</v>
+        <v>-52.00051241151999</v>
       </c>
       <c r="C54" t="n">
         <v>-35.14195068633864</v>
@@ -3044,10 +3097,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-52.12698365527655</v>
+        <v>-51.96883683699316</v>
       </c>
       <c r="C55" t="n">
-        <v>-36.82039088646646</v>
+        <v>-36.84333154669029</v>
       </c>
     </row>
     <row r="56">
@@ -3077,10 +3130,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-52.11737543320911</v>
+        <v>-52.95338702154523</v>
       </c>
       <c r="C58" t="n">
-        <v>-39.13495405636679</v>
+        <v>-39.03251763517144</v>
       </c>
     </row>
     <row r="59">
@@ -3110,10 +3163,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-52.35611952590941</v>
+        <v>-52.13902118232237</v>
       </c>
       <c r="C61" t="n">
-        <v>-39.74591554236658</v>
+        <v>-39.72922042880859</v>
       </c>
     </row>
     <row r="62">
@@ -3121,7 +3174,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-52.47967603294051</v>
+        <v>-52.35611952590941</v>
       </c>
       <c r="C62" t="n">
         <v>-39.36028542424542</v>
@@ -3135,7 +3188,7 @@
         <v>-52.08403119467465</v>
       </c>
       <c r="C63" t="n">
-        <v>-38.75098318467187</v>
+        <v>-39.36425529460507</v>
       </c>
     </row>
     <row r="64">
@@ -3154,7 +3207,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-52.22731493707765</v>
+        <v>-52.38133525722154</v>
       </c>
       <c r="C65" t="n">
         <v>-38.3178779750169</v>
@@ -3168,7 +3221,7 @@
         <v>-51.46788379854126</v>
       </c>
       <c r="C66" t="n">
-        <v>-37.09533964475115</v>
+        <v>-38.27609024859262</v>
       </c>
     </row>
     <row r="67">
@@ -3198,10 +3251,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-49.58470686831341</v>
+        <v>-50.11127785122068</v>
       </c>
       <c r="C69" t="n">
-        <v>-26.88991546099373</v>
+        <v>-33.03522303912162</v>
       </c>
     </row>
     <row r="70">
@@ -3223,7 +3276,7 @@
         <v>-47.86174642697308</v>
       </c>
       <c r="C71" t="n">
-        <v>-17.56600800436084</v>
+        <v>-17.76851173264443</v>
       </c>
     </row>
     <row r="72">
@@ -3231,7 +3284,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-47.75919458247979</v>
+        <v>-47.87474968417461</v>
       </c>
       <c r="C72" t="n">
         <v>-5.791822611532843</v>
@@ -3256,7 +3309,7 @@
         <v>-45.46220358324976</v>
       </c>
       <c r="C74" t="n">
-        <v>8.905770981521869</v>
+        <v>8.818681605905921</v>
       </c>
     </row>
     <row r="75">
@@ -3275,7 +3328,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-40.42623140783668</v>
+        <v>-40.30966788519401</v>
       </c>
       <c r="C76" t="n">
         <v>27.28117326622182</v>
@@ -3289,7 +3342,7 @@
         <v>-32.22839228052452</v>
       </c>
       <c r="C77" t="n">
-        <v>37.58000414629285</v>
+        <v>37.55717468161708</v>
       </c>
     </row>
     <row r="78">
@@ -3308,7 +3361,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-16.75863515744118</v>
+        <v>-17.30928977369402</v>
       </c>
       <c r="C79" t="n">
         <v>49.72600926206793</v>
@@ -3344,7 +3397,7 @@
         <v>33.75507207363076</v>
       </c>
       <c r="C82" t="n">
-        <v>76.44261294472429</v>
+        <v>69.74380708099615</v>
       </c>
     </row>
     <row r="83">
@@ -3352,7 +3405,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>56.1946512164672</v>
+        <v>33.71186133418944</v>
       </c>
       <c r="C83" t="n">
         <v>76.44257701035045</v>
@@ -3385,7 +3438,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>86.01578184684222</v>
+        <v>74.09131566514093</v>
       </c>
       <c r="C86" t="n">
         <v>86.40689277580839</v>
@@ -3432,7 +3485,7 @@
         <v>78.21639605010921</v>
       </c>
       <c r="C90" t="n">
-        <v>88.30983555060035</v>
+        <v>88.29357099144241</v>
       </c>
     </row>
     <row r="91">
@@ -3520,7 +3573,7 @@
         <v>85.23554425702339</v>
       </c>
       <c r="C98" t="n">
-        <v>82.66366799061083</v>
+        <v>83.99864146335682</v>
       </c>
     </row>
     <row r="99">
@@ -3572,7 +3625,1604 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_angle_B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stride_1_AB_midpoint</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_A</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_angle_B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>stride_2_AB_midpoint</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-89.8098095537611</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-89.8098095537611</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.07765446449542</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.11654218005935</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-62.00120971158819</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-62.00120971158819</v>
+      </c>
+      <c r="H2" t="n">
+        <v>44.20909368730587</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.968593998863605</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-87.78799752264234</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-61.63758292583554</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-85.68704784174115</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-61.65203815391042</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-85.68704784174115</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-61.11996973297495</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-84.4593716794096</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-61.07539021510838</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-30.39698584639881</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-60.09973135513066</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-62.06724177991454</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-60.02070644855612</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-32.32196543462899</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-59.07985004271023</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.087810684971421</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-59.04554884782092</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-35.87471662902858</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-57.45922301356013</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-35.92265265724064</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-57.3872971364508</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-35.71647081494927</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-55.69347700310035</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-35.69745953263219</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-55.68181285384595</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-34.85217218642862</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-53.57528052648674</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-34.92816291610534</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-53.52319484953377</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-67.88491670344048</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-50.99817723445683</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-65.10540978894032</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-50.90122576629455</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-34.82339259079178</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-47.95377507765861</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-34.85732940424438</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-47.91698052356064</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-22.8609578135961</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-44.60471053185043</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-22.86654768368649</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>-44.54034375441748</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-22.89260105434455</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-41.29473096413443</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-22.88616233570551</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>-41.27666231252186</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-21.56795353427416</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-37.73055932083675</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-21.46308554659829</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-37.64762523781689</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-21.49204577481365</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-33.51315135967565</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-21.5542128409697</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-33.45225256049468</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-20.69984379289943</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-30.19033718505934</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-20.67585760616458</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-30.03032731928871</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-21.96116662855801</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-26.17517195127756</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-21.98812375478843</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-26.13109010574603</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-10.47594930191554</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-22.33742204928718</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-10.46284511642493</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-22.22020164578435</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-10.3346074285141</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-18.96318736642483</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-10.29461175914333</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-18.8904257435641</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-7.235338890198206</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-16.3262868736193</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-7.229027532412466</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-16.24169798366541</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-3.412643580627811</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-11.77778277255512</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-3.431596396635846</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-11.74301927138622</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1343257595588045</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-6.553573658476602</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1305643004374299</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-6.528266833612189</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.010093682360174</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-2.173606346330512</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.992246680683682</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-1.962410696966759</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>7.905353620485381</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>2.021190241022395</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>7.931175489761942</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>1.968593998863605</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12.30190887035676</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>5.282420919885321</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>12.36115129243081</v>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>5.259242848733812</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>15.85443959929929</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>8.942864865334879</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>15.85493777329431</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>8.820313658656859</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>18.9904088879249</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>13.12830467622388</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>19.08739237905473</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>13.084463259558</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>22.45688945193073</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>16.79129990515845</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>22.52868454134562</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>16.7262979080058</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>25.84912154735562</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>20.54250612683811</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>25.93795268724601</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>20.38325210685669</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>29.32059114449422</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>23.97833534180075</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>29.3265440641469</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>23.91381045158343</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>33.17420011885267</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>27.22929523721702</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>33.23140102542202</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>27.24270617838852</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>37.04677970620001</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>29.89235787556072</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>37.09027824331317</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>29.86885900477201</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>40.99301121292995</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>32.19543760072993</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>41.06910817872996</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>32.21089249883762</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>45.11871514331018</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>34.95781954086841</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>45.07936560273627</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>35.0551315766607</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>49.06470349567714</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>37.47110872501225</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>49.05865590882303</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>37.43624865767166</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>51.08512535349463</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>39.76863844067788</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>51.06975805835946</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>39.73028244423177</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>51.63670349317172</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>41.68751441746455</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>51.6240318538016</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>41.74157003236885</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>52.12475772405045</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>42.58566715989529</v>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>52.23215505123361</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>42.59967664653046</v>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>51.67772960841284</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>43.13360621709528</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>51.64016896450978</v>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>43.13576538154867</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>51.82459001753987</v>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>43.62999935246906</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>51.78205879792847</v>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>43.65083345371185</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>51.80025050195699</v>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>43.86103720218848</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>51.79100768357182</v>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>43.88909047265978</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>51.56202227004672</v>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>44.15996317276623</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>51.50849336869342</v>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>44.137027374174</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>51.76706373144986</v>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>44.70569717605023</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>51.66654343410001</v>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>44.67113106652702</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>50.84209509421635</v>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>44.63750192174189</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>50.81851088720475</v>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>44.63853174660242</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>49.83861279252041</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>44.18516143887977</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>49.83535642819775</v>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>44.20909368730587</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>48.95388577732956</v>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>48.95218432071233</v>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>48.07765446449542</v>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3603,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-87.78799752264234</v>
+        <v>-89.8098095537611</v>
       </c>
       <c r="C2" t="n">
-        <v>-61.63758292583554</v>
+        <v>-62.00120971158819</v>
       </c>
     </row>
     <row r="3">
@@ -3614,10 +5264,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-85.68704784174115</v>
+        <v>-87.78799752264234</v>
       </c>
       <c r="C3" t="n">
-        <v>-61.65203815391042</v>
+        <v>-61.63758292583554</v>
       </c>
     </row>
     <row r="4">
@@ -3625,10 +5275,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-84.4593716794096</v>
+        <v>-85.68704784174115</v>
       </c>
       <c r="C4" t="n">
-        <v>-61.07539021510838</v>
+        <v>-61.11996973297495</v>
       </c>
     </row>
     <row r="5">
@@ -3636,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-30.39698584639881</v>
+        <v>-84.4593716794096</v>
       </c>
       <c r="C5" t="n">
-        <v>-60.09973135513066</v>
+        <v>-61.07539021510838</v>
       </c>
     </row>
     <row r="6">
@@ -3647,7 +5297,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-62.06724177991454</v>
+        <v>-30.39698584639881</v>
       </c>
       <c r="C6" t="n">
         <v>-60.02070644855612</v>
@@ -3658,10 +5308,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-32.32196543462899</v>
+        <v>-62.06724177991454</v>
       </c>
       <c r="C7" t="n">
-        <v>-59.04554884782092</v>
+        <v>-59.07985004271023</v>
       </c>
     </row>
     <row r="8">
@@ -3669,10 +5319,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-35.87471662902858</v>
+        <v>-2.087810684971421</v>
       </c>
       <c r="C8" t="n">
-        <v>-57.45922301356013</v>
+        <v>-59.04554884782092</v>
       </c>
     </row>
     <row r="9">
@@ -3680,10 +5330,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-35.92265265724064</v>
+        <v>-35.87471662902858</v>
       </c>
       <c r="C9" t="n">
-        <v>-55.69347700310035</v>
+        <v>-57.3872971364508</v>
       </c>
     </row>
     <row r="10">
@@ -3691,10 +5341,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-35.71647081494927</v>
+        <v>-35.92265265724064</v>
       </c>
       <c r="C10" t="n">
-        <v>-55.68181285384595</v>
+        <v>-55.69347700310035</v>
       </c>
     </row>
     <row r="11">
@@ -3702,10 +5352,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-34.85217218642862</v>
+        <v>-35.69745953263219</v>
       </c>
       <c r="C11" t="n">
-        <v>-53.57528052648674</v>
+        <v>-55.68181285384595</v>
       </c>
     </row>
     <row r="12">
@@ -3713,10 +5363,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-34.92816291610534</v>
+        <v>-34.85217218642862</v>
       </c>
       <c r="C12" t="n">
-        <v>-50.99817723445683</v>
+        <v>-53.52319484953377</v>
       </c>
     </row>
     <row r="13">
@@ -3724,10 +5374,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-67.88491670344048</v>
+        <v>-34.92816291610534</v>
       </c>
       <c r="C13" t="n">
-        <v>-50.90122576629455</v>
+        <v>-50.99817723445683</v>
       </c>
     </row>
     <row r="14">
@@ -3735,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-65.10540978894032</v>
+        <v>-67.88491670344048</v>
       </c>
       <c r="C14" t="n">
         <v>-47.95377507765861</v>
@@ -3746,10 +5396,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-34.85732940424438</v>
+        <v>-34.82339259079178</v>
       </c>
       <c r="C15" t="n">
-        <v>-44.60471053185043</v>
+        <v>-47.91698052356064</v>
       </c>
     </row>
     <row r="16">
@@ -3757,10 +5407,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-22.8609578135961</v>
+        <v>-34.85732940424438</v>
       </c>
       <c r="C16" t="n">
-        <v>-44.54034375441748</v>
+        <v>-44.60471053185043</v>
       </c>
     </row>
     <row r="17">
@@ -3768,10 +5418,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-22.86654768368649</v>
+        <v>-22.8609578135961</v>
       </c>
       <c r="C17" t="n">
-        <v>-41.27666231252186</v>
+        <v>-41.29473096413443</v>
       </c>
     </row>
     <row r="18">
@@ -3782,7 +5432,7 @@
         <v>-22.89260105434455</v>
       </c>
       <c r="C18" t="n">
-        <v>-37.73055932083675</v>
+        <v>-41.27666231252186</v>
       </c>
     </row>
     <row r="19">
@@ -3790,10 +5440,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-21.56795353427416</v>
+        <v>-22.88616233570551</v>
       </c>
       <c r="C19" t="n">
-        <v>-37.64762523781689</v>
+        <v>-37.73055932083675</v>
       </c>
     </row>
     <row r="20">
@@ -3801,10 +5451,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-21.46308554659829</v>
+        <v>-21.56795353427416</v>
       </c>
       <c r="C20" t="n">
-        <v>-33.45225256049468</v>
+        <v>-33.51315135967565</v>
       </c>
     </row>
     <row r="21">
@@ -3815,7 +5465,7 @@
         <v>-21.49204577481365</v>
       </c>
       <c r="C21" t="n">
-        <v>-30.19033718505934</v>
+        <v>-33.45225256049468</v>
       </c>
     </row>
     <row r="22">
@@ -3823,7 +5473,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-20.69984379289943</v>
+        <v>-21.5542128409697</v>
       </c>
       <c r="C22" t="n">
         <v>-30.03032731928871</v>
@@ -3834,10 +5484,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-20.67585760616458</v>
+        <v>-20.69984379289943</v>
       </c>
       <c r="C23" t="n">
-        <v>-26.13109010574603</v>
+        <v>-26.17517195127756</v>
       </c>
     </row>
     <row r="24">
@@ -3845,10 +5495,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-21.96116662855801</v>
+        <v>-20.67585760616458</v>
       </c>
       <c r="C24" t="n">
-        <v>-22.33742204928718</v>
+        <v>-26.13109010574603</v>
       </c>
     </row>
     <row r="25">
@@ -3859,7 +5509,7 @@
         <v>-21.98812375478843</v>
       </c>
       <c r="C25" t="n">
-        <v>-18.96318736642483</v>
+        <v>-22.22020164578435</v>
       </c>
     </row>
     <row r="26">
@@ -3867,10 +5517,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-10.46284511642493</v>
+        <v>-10.47594930191554</v>
       </c>
       <c r="C26" t="n">
-        <v>-18.8904257435641</v>
+        <v>-18.96318736642483</v>
       </c>
     </row>
     <row r="27">
@@ -3878,10 +5528,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-10.3346074285141</v>
+        <v>-10.46284511642493</v>
       </c>
       <c r="C27" t="n">
-        <v>-16.3262868736193</v>
+        <v>-18.8904257435641</v>
       </c>
     </row>
     <row r="28">
@@ -3892,7 +5542,7 @@
         <v>-10.29461175914333</v>
       </c>
       <c r="C28" t="n">
-        <v>-11.77778277255512</v>
+        <v>-16.24169798366541</v>
       </c>
     </row>
     <row r="29">
@@ -3900,10 +5550,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-7.229027532412466</v>
+        <v>-7.235338890198206</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.74301927138622</v>
+        <v>-11.77778277255512</v>
       </c>
     </row>
     <row r="30">
@@ -3911,7 +5561,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.412643580627811</v>
+        <v>-7.229027532412466</v>
       </c>
       <c r="C30" t="n">
         <v>-6.553573658476602</v>
@@ -3922,10 +5572,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-3.431596396635846</v>
+        <v>-3.412643580627811</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.173606346330512</v>
+        <v>-6.528266833612189</v>
       </c>
     </row>
     <row r="32">
@@ -3936,7 +5586,7 @@
         <v>0.1343257595588045</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.962410696966759</v>
+        <v>-2.173606346330512</v>
       </c>
     </row>
     <row r="33">
@@ -3944,7 +5594,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.010093682360174</v>
+        <v>0.1305643004374299</v>
       </c>
       <c r="C33" t="n">
         <v>2.021190241022395</v>
@@ -3955,10 +5605,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.992246680683682</v>
+        <v>4.010093682360174</v>
       </c>
       <c r="C34" t="n">
-        <v>5.282420919885321</v>
+        <v>1.968593998863605</v>
       </c>
     </row>
     <row r="35">
@@ -3977,10 +5627,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.30190887035676</v>
+        <v>7.931175489761942</v>
       </c>
       <c r="C36" t="n">
-        <v>8.820313658656859</v>
+        <v>8.942864865334879</v>
       </c>
     </row>
     <row r="37">
@@ -3988,10 +5638,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.36115129243081</v>
+        <v>12.30190887035676</v>
       </c>
       <c r="C37" t="n">
-        <v>13.12830467622388</v>
+        <v>8.820313658656859</v>
       </c>
     </row>
     <row r="38">
@@ -3999,7 +5649,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.85443959929929</v>
+        <v>12.36115129243081</v>
       </c>
       <c r="C38" t="n">
         <v>13.084463259558</v>
@@ -4013,7 +5663,7 @@
         <v>15.85493777329431</v>
       </c>
       <c r="C39" t="n">
-        <v>16.7262979080058</v>
+        <v>16.79129990515845</v>
       </c>
     </row>
     <row r="40">
@@ -4021,10 +5671,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19.08739237905473</v>
+        <v>18.9904088879249</v>
       </c>
       <c r="C40" t="n">
-        <v>20.54250612683811</v>
+        <v>16.7262979080058</v>
       </c>
     </row>
     <row r="41">
@@ -4032,7 +5682,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>22.45688945193073</v>
+        <v>19.08739237905473</v>
       </c>
       <c r="C41" t="n">
         <v>20.38325210685669</v>
@@ -4046,7 +5696,7 @@
         <v>22.52868454134562</v>
       </c>
       <c r="C42" t="n">
-        <v>23.91381045158343</v>
+        <v>23.97833534180075</v>
       </c>
     </row>
     <row r="43">
@@ -4065,10 +5715,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.32059114449422</v>
+        <v>25.93795268724601</v>
       </c>
       <c r="C44" t="n">
-        <v>29.89235787556072</v>
+        <v>27.24270617838852</v>
       </c>
     </row>
     <row r="45">
@@ -4076,10 +5726,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.3265440641469</v>
+        <v>29.32059114449422</v>
       </c>
       <c r="C45" t="n">
-        <v>29.86885900477201</v>
+        <v>29.89235787556072</v>
       </c>
     </row>
     <row r="46">
@@ -4098,10 +5748,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>37.04677970620001</v>
+        <v>33.23140102542202</v>
       </c>
       <c r="C47" t="n">
-        <v>34.95781954086841</v>
+        <v>32.21089249883762</v>
       </c>
     </row>
     <row r="48">
@@ -4109,10 +5759,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>37.09027824331317</v>
+        <v>37.04677970620001</v>
       </c>
       <c r="C48" t="n">
-        <v>35.0551315766607</v>
+        <v>34.95781954086841</v>
       </c>
     </row>
     <row r="49">
@@ -4134,7 +5784,7 @@
         <v>41.06910817872996</v>
       </c>
       <c r="C50" t="n">
-        <v>39.76863844067788</v>
+        <v>37.43624865767166</v>
       </c>
     </row>
     <row r="51">
@@ -4142,7 +5792,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>45.07936560273627</v>
+        <v>45.11871514331018</v>
       </c>
       <c r="C51" t="n">
         <v>39.73028244423177</v>
@@ -4153,7 +5803,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>49.06470349567714</v>
+        <v>45.07936560273627</v>
       </c>
       <c r="C52" t="n">
         <v>41.68751441746455</v>
@@ -4167,7 +5817,7 @@
         <v>49.05865590882303</v>
       </c>
       <c r="C53" t="n">
-        <v>42.58566715989529</v>
+        <v>41.74157003236885</v>
       </c>
     </row>
     <row r="54">
@@ -4175,7 +5825,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>51.06975805835946</v>
+        <v>51.08512535349463</v>
       </c>
       <c r="C54" t="n">
         <v>42.59967664653046</v>
@@ -4186,10 +5836,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>51.63670349317172</v>
+        <v>51.06975805835946</v>
       </c>
       <c r="C55" t="n">
-        <v>43.13576538154867</v>
+        <v>43.13360621709528</v>
       </c>
     </row>
     <row r="56">
@@ -4219,10 +5869,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>51.67772960841284</v>
+        <v>52.23215505123361</v>
       </c>
       <c r="C58" t="n">
-        <v>43.88909047265978</v>
+        <v>43.86103720218848</v>
       </c>
     </row>
     <row r="59">
@@ -4252,10 +5902,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>51.80025050195699</v>
+        <v>51.78205879792847</v>
       </c>
       <c r="C61" t="n">
-        <v>44.67113106652702</v>
+        <v>44.70569717605023</v>
       </c>
     </row>
     <row r="62">
@@ -4263,7 +5913,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>51.79100768357182</v>
+        <v>51.80025050195699</v>
       </c>
       <c r="C62" t="n">
         <v>44.63750192174189</v>
@@ -4277,7 +5927,7 @@
         <v>51.56202227004672</v>
       </c>
       <c r="C63" t="n">
-        <v>44.18516143887977</v>
+        <v>44.63853174660242</v>
       </c>
     </row>
     <row r="64">
@@ -4296,7 +5946,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>51.66654343410001</v>
+        <v>51.76706373144986</v>
       </c>
       <c r="C65" t="n">
         <v>44.37922530055419</v>
@@ -4310,7 +5960,7 @@
         <v>50.84209509421635</v>
       </c>
       <c r="C66" t="n">
-        <v>44.1604236588401</v>
+        <v>44.3792558905785</v>
       </c>
     </row>
     <row r="67">
@@ -4340,10 +5990,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>48.95388577732956</v>
+        <v>49.83535642819775</v>
       </c>
       <c r="C69" t="n">
-        <v>40.84848961884853</v>
+        <v>42.86473420649846</v>
       </c>
     </row>
     <row r="70">
@@ -4365,7 +6015,7 @@
         <v>48.07765446449542</v>
       </c>
       <c r="C71" t="n">
-        <v>38.34378796122679</v>
+        <v>38.3120081415742</v>
       </c>
     </row>
     <row r="72">
@@ -4373,7 +6023,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>48.76645739645641</v>
+        <v>48.07125874717816</v>
       </c>
       <c r="C72" t="n">
         <v>34.42317043841997</v>
@@ -4398,7 +6048,7 @@
         <v>50.18209798198554</v>
       </c>
       <c r="C74" t="n">
-        <v>27.68272902680271</v>
+        <v>27.67392353977533</v>
       </c>
     </row>
     <row r="75">
@@ -4417,7 +6067,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>50.05929988890193</v>
+        <v>50.01853496890055</v>
       </c>
       <c r="C76" t="n">
         <v>19.25280791804868</v>
@@ -4431,7 +6081,7 @@
         <v>47.26199711606814</v>
       </c>
       <c r="C77" t="n">
-        <v>9.718185400823812</v>
+        <v>9.793132457890444</v>
       </c>
     </row>
     <row r="78">
@@ -4450,7 +6100,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>41.90860762946682</v>
+        <v>41.93867082970836</v>
       </c>
       <c r="C79" t="n">
         <v>0.06573475231165944</v>
@@ -4486,7 +6136,7 @@
         <v>26.32550412817677</v>
       </c>
       <c r="C82" t="n">
-        <v>-24.64998944507481</v>
+        <v>-17.19986495136368</v>
       </c>
     </row>
     <row r="83">
@@ -4494,7 +6144,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.97346288334358</v>
+        <v>25.97424887887802</v>
       </c>
       <c r="C83" t="n">
         <v>-24.57783101430389</v>
@@ -4527,7 +6177,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-11.69402807479054</v>
+        <v>3.507372471749616</v>
       </c>
       <c r="C86" t="n">
         <v>-39.65649054420486</v>
@@ -4574,7 +6224,7 @@
         <v>-38.88244742573793</v>
       </c>
       <c r="C90" t="n">
-        <v>-52.95890136448389</v>
+        <v>-52.93014473021658</v>
       </c>
     </row>
     <row r="91">
@@ -4662,7 +6312,7 @@
         <v>-58.95137497780964</v>
       </c>
       <c r="C98" t="n">
-        <v>-59.67998257539995</v>
+        <v>-59.33896769425382</v>
       </c>
     </row>
     <row r="99">
